--- a/raw_data/KEEN ONE/Grabowski/2016/Pemaquid August 2016/Pemaquid_Quad_Entry_2_1_17.xlsx
+++ b/raw_data/KEEN ONE/Grabowski/2016/Pemaquid August 2016/Pemaquid_Quad_Entry_2_1_17.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ScyphersLabGuest/Desktop/KEEN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jebyrnes/Dropbox (Byrnes Lab)/Byrnes Lab Shared Folder/KEEN Data Processing/Monitoring/raw_data/KEEN ONE/Grabowski/2016/Pemaquid August 2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D2FC1-5590-2F4A-B43D-66FF58F1FED1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3140" windowWidth="35900" windowHeight="20620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Allowed Codes" sheetId="4" r:id="rId2"/>
+    <sheet name="Changelog" sheetId="5" r:id="rId2"/>
+    <sheet name="Allowed Codes" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Reef Group</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,6 +40,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -46,13 +49,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Four Digit Year</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,6 +64,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -68,13 +73,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Month number, ex. December =12</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,6 +88,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -90,13 +97,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 date of the survey, not todays date!</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -104,6 +112,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -112,6 +121,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Four Digit Site Code
@@ -119,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -127,6 +137,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -135,13 +146,14 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Transect number from data sheet</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -149,6 +161,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -157,6 +170,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Four Digit Species Code
@@ -174,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -182,6 +196,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -190,6 +205,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Quad Number from datasheet
@@ -197,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -205,6 +221,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Reef Group:</t>
         </r>
@@ -213,6 +230,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 two digit Observer code
@@ -225,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="212">
   <si>
     <t>YEAR</t>
   </si>
@@ -1317,11 +1335,20 @@
   <si>
     <t>LADI</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Made sure all T4 was , and not 5,6,7,8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -1340,12 +1367,14 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1356,18 +1385,21 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1409,6 +1441,7 @@
       <u/>
       <sz val="12"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1491,7 +1524,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1587,6 +1620,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1724,6 +1759,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2050,12 +2088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2579,7 +2617,7 @@
         <v>198</v>
       </c>
       <c r="F10" s="39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>201</v>
@@ -2630,7 +2668,7 @@
         <v>198</v>
       </c>
       <c r="F11" s="39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11" s="40" t="s">
         <v>207</v>
@@ -2675,7 +2713,7 @@
         <v>198</v>
       </c>
       <c r="F12" s="39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>208</v>
@@ -2735,7 +2773,7 @@
         <v>198</v>
       </c>
       <c r="F13" s="39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>205</v>
@@ -5871,21 +5909,21 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,8,16,24,32,40"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199:C65537">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199:C65537" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67:F65537">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67:F65537" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W7">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W7" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"OFF, ON"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:M1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:M1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5897,7 +5935,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F247A926-0090-8C40-8B0A-EB76465B3049}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="43">
+        <v>43657</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
